--- a/xlsx/自由民主制_intext.xlsx
+++ b/xlsx/自由民主制_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="409">
   <si>
     <t>自由民主制</t>
   </si>
@@ -29,7 +29,7 @@
     <t>民主</t>
   </si>
   <si>
-    <t>政策_政策_美國_自由民主制</t>
+    <t>政策_政策_美国_自由民主制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%8F%B2</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%92%8C%E5%B9%B3%E8%AB%96</t>
   </si>
   <si>
-    <t>民主和平論</t>
+    <t>民主和平论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%8E%A5%E6%B0%91%E4%B8%BB%E5%88%B6</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0%E6%B0%91%E4%B8%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>代議民主制</t>
+    <t>代议民主制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E5%BC%8F%E6%B0%91%E4%B8%BB</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A9%E8%AD%B0%E6%B0%91%E4%B8%BB</t>
   </si>
   <si>
-    <t>審議民主</t>
+    <t>审议民主</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Anticipatory_democracy</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E6%B0%91%E4%B8%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>威權民主制</t>
+    <t>威权民主制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E6%9D%83%E6%B0%91%E4%B8%BB</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BF%80%E9%80%B2%E6%B0%91%E4%B8%BB</t>
   </si>
   <si>
-    <t>激進民主</t>
+    <t>激进民主</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%82%E4%B8%8E%E6%B0%91%E4%B8%BB%E5%88%B6</t>
@@ -161,13 +161,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>基督教民主主義</t>
+    <t>基督教民主主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%B0%91%E4%B8%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>伊斯蘭民主制</t>
+    <t>伊斯兰民主制</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Economic_democracy</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%A2%E6%A5%AD%E6%B0%91%E4%B8%BB</t>
   </si>
   <si>
-    <t>產業民主</t>
+    <t>产业民主</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/E-democracy</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%95%B8%E4%BA%BA%E6%9A%B4%E6%94%BF</t>
   </si>
   <si>
-    <t>多數人暴政</t>
+    <t>多数人暴政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E6%B0%91%E6%94%BF%E6%B2%BB</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會民主主義</t>
+    <t>社会民主主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%9B%86%E4%B8%AD%E5%88%B6</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E7%9A%84%E7%A8%AE%E9%A1%9E</t>
   </si>
   <si>
-    <t>民主的種類</t>
+    <t>民主的种类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Democracy</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>政體</t>
+    <t>政体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>金權政治</t>
+    <t>金权政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%8B%E9%98%80%E6%94%BF%E6%B2%BB</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>威權政體</t>
+    <t>威权政体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81</t>
@@ -347,19 +347,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>威權主義</t>
+    <t>威权主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6</t>
   </si>
   <si>
-    <t>專制</t>
+    <t>专制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>專制主義</t>
+    <t>专制主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E7%8D%A8%E8%A3%81</t>
   </si>
   <si>
-    <t>軍事獨裁</t>
+    <t>军事独裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E6%9D%83%E4%B8%BB%E4%B9%89</t>
@@ -383,19 +383,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>軍國主義</t>
+    <t>军国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>無政府</t>
+    <t>无政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%B0%91%E4%B8%BB%E7%8B%80%E6%85%8B</t>
   </si>
   <si>
-    <t>半民主狀態</t>
+    <t>半民主状态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A4%E5%AE%98%E7%BB%9F%E6%B2%BB</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>神權政治</t>
+    <t>神权政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E4%BA%BA%E6%94%BF%E6%B2%BB</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>綠色政治</t>
+    <t>绿色政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%B2%BB</t>
@@ -443,19 +443,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E7%94%A2</t>
   </si>
   <si>
-    <t>財產</t>
+    <t>财产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%80%E8%AB%96%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>言論自由</t>
+    <t>言论自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E6%9C%83%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>集會自由</t>
+    <t>集会自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%A6</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%AC%E5%AE%B9</t>
   </si>
   <si>
-    <t>寬容</t>
+    <t>宽容</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%85%83</t>
@@ -479,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>選舉</t>
+    <t>选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E4%B9%89</t>
@@ -491,13 +491,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>啟蒙時代</t>
+    <t>启蒙时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E7%AB%8B%E6%86%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>共和立憲制</t>
+    <t>共和立宪制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%80%89%E6%9D%83</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E6%96%AF%E9%A1%BF%C2%B7%E4%B8%98%E5%90%89%E5%B0%94</t>
@@ -545,13 +545,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E7%8D%A8%E7%AB%8B</t>
   </si>
   <si>
-    <t>司法獨立</t>
+    <t>司法独立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%97%E4%BD%9C%E6%AC%8A</t>
   </si>
   <si>
-    <t>著作權</t>
+    <t>着作权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9D%83</t>
@@ -575,19 +575,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%87%E6%81%A8%E8%A8%80%E8%AB%96</t>
   </si>
   <si>
-    <t>仇恨言論</t>
+    <t>仇恨言论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%94%A2%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>中產階級</t>
+    <t>中产阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>公民社會</t>
+    <t>公民社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2</t>
@@ -599,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B9%8B%E5%AE%B6</t>
@@ -623,9 +623,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>君主立憲制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB</t>
   </si>
   <si>
@@ -635,19 +632,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>議會制</t>
+    <t>议会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
   </si>
   <si>
-    <t>半總統制</t>
+    <t>半总统制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
   </si>
   <si>
-    <t>總統制</t>
+    <t>总统制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%95%99%E5%90%88%E4%B8%80</t>
@@ -659,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E9%BB%A8%E5%9F%B7%E6%94%BF</t>
   </si>
   <si>
-    <t>一黨執政</t>
+    <t>一党执政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%A4%BE%E5%88%B6</t>
@@ -719,7 +716,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%9B%BD%E4%B8%A4%E5%88%B6</t>
@@ -749,7 +746,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E8%AD%B0%E5%B8%AD%E5%96%AE%E7%A5%A8%E5%88%B6</t>
   </si>
   <si>
-    <t>單議席單票制</t>
+    <t>单议席单票制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E4%BE%8B%E4%BB%A3%E8%A1%A8%E5%88%B6</t>
@@ -773,9 +770,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F%E5%88%B6</t>
   </si>
   <si>
-    <t>总统制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%9C%BA%E6%9E%84</t>
   </si>
   <si>
@@ -791,9 +785,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E4%BD%93</t>
   </si>
   <si>
-    <t>政体</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E4%BF%A1%E4%BB%BB%E5%8A%A8%E8%AE%AE</t>
   </si>
   <si>
@@ -821,13 +812,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E7%B2%B9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民粹主義</t>
+    <t>民粹主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E7%A8%AE%E6%97%8F%E9%9A%94%E9%9B%A2</t>
   </si>
   <si>
-    <t>南非種族隔離</t>
+    <t>南非种族隔离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E8%A7%A3%E4%BD%93</t>
@@ -857,13 +848,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由意志主義</t>
+    <t>自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>君主主義</t>
+    <t>君主主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%B3%95</t>
@@ -881,7 +872,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E9%81%B8%E6%93%87%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>公共選擇理論</t>
+    <t>公共选择理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%A1%E5%AF%BC%E5%9B%A2%E4%BD%93</t>
@@ -893,7 +884,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%9C%E8%B2%BC</t>
   </si>
   <si>
-    <t>補貼</t>
+    <t>补贴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%C2%B7%E9%A9%AC%E5%85%8B%E6%80%9D</t>
@@ -929,13 +920,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>社會階層</t>
+    <t>社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%A2%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>資產階級</t>
+    <t>资产阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9E%84%E6%96%AD</t>
@@ -953,7 +944,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B5%E5%85%B5%E5%88%B6</t>
   </si>
   <si>
-    <t>徵兵制</t>
+    <t>征兵制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E6%83%85</t>
@@ -983,19 +974,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9</t>
   </si>
   <si>
-    <t>納粹</t>
+    <t>纳粹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E7%91%AA%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>魏瑪共和國</t>
+    <t>魏玛共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%95%B8%E6%B1%BA</t>
   </si>
   <si>
-    <t>多數決</t>
+    <t>多数决</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BA%89</t>
@@ -1031,7 +1022,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E9%87%8C311%E9%80%A3%E7%92%B0%E7%88%86%E7%82%B8%E6%A1%88</t>
   </si>
   <si>
-    <t>馬德里311連環爆炸案</t>
+    <t>马德里311连环爆炸案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC</t>
@@ -1103,7 +1094,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>自由貿易</t>
+    <t>自由贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B4%A7%E8%86%A8%E8%83%80</t>
@@ -1127,13 +1118,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%A6%E7%B4%8D</t>
   </si>
   <si>
-    <t>迦納</t>
+    <t>迦纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%85%A7%E5%8A%A0%E7%88%BE</t>
   </si>
   <si>
-    <t>塞內加爾</t>
+    <t>塞内加尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89</t>
@@ -1145,13 +1136,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>敘利亞</t>
+    <t>叙利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B</t>
   </si>
   <si>
-    <t>烏茲別克</t>
+    <t>乌兹别克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%B7%B4%E5%A8%81</t>
@@ -1169,7 +1160,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A5%91%E8%8D%92</t>
   </si>
   <si>
-    <t>饑荒</t>
+    <t>饥荒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%8F%91%E5%B1%95%E6%8C%87%E6%95%B0</t>
@@ -1181,13 +1172,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%92%8C%E5%B9%B3%E8%AE%BA</t>
   </si>
   <si>
-    <t>民主和平论</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>內戰</t>
+    <t>内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93%E5%A3%81%E5%9E%92</t>
@@ -1211,7 +1199,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E8%AB%BE%E7%99%BB</t>
   </si>
   <si>
-    <t>斯諾登</t>
+    <t>斯诺登</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%8F%AA%E7%9C%BC</t>
@@ -4640,7 +4628,7 @@
         <v>201</v>
       </c>
       <c r="F105" t="s">
-        <v>202</v>
+        <v>92</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -4666,10 +4654,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>202</v>
+      </c>
+      <c r="F106" t="s">
         <v>203</v>
-      </c>
-      <c r="F106" t="s">
-        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>15</v>
@@ -4695,10 +4683,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>204</v>
+      </c>
+      <c r="F107" t="s">
         <v>205</v>
-      </c>
-      <c r="F107" t="s">
-        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4753,10 +4741,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>206</v>
+      </c>
+      <c r="F109" t="s">
         <v>207</v>
-      </c>
-      <c r="F109" t="s">
-        <v>208</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4782,10 +4770,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>204</v>
+      </c>
+      <c r="F110" t="s">
         <v>205</v>
-      </c>
-      <c r="F110" t="s">
-        <v>206</v>
       </c>
       <c r="G110" t="n">
         <v>6</v>
@@ -4811,10 +4799,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>208</v>
+      </c>
+      <c r="F111" t="s">
         <v>209</v>
-      </c>
-      <c r="F111" t="s">
-        <v>210</v>
       </c>
       <c r="G111" t="n">
         <v>4</v>
@@ -4843,7 +4831,7 @@
         <v>201</v>
       </c>
       <c r="F112" t="s">
-        <v>202</v>
+        <v>92</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -4869,10 +4857,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>210</v>
+      </c>
+      <c r="F113" t="s">
         <v>211</v>
-      </c>
-      <c r="F113" t="s">
-        <v>212</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4898,10 +4886,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>212</v>
+      </c>
+      <c r="F114" t="s">
         <v>213</v>
-      </c>
-      <c r="F114" t="s">
-        <v>214</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4927,10 +4915,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>214</v>
+      </c>
+      <c r="F115" t="s">
         <v>215</v>
-      </c>
-      <c r="F115" t="s">
-        <v>216</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4956,10 +4944,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>216</v>
+      </c>
+      <c r="F116" t="s">
         <v>217</v>
-      </c>
-      <c r="F116" t="s">
-        <v>218</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -4985,10 +4973,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>218</v>
+      </c>
+      <c r="F117" t="s">
         <v>219</v>
-      </c>
-      <c r="F117" t="s">
-        <v>220</v>
       </c>
       <c r="G117" t="n">
         <v>4</v>
@@ -5014,10 +5002,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>220</v>
+      </c>
+      <c r="F118" t="s">
         <v>221</v>
-      </c>
-      <c r="F118" t="s">
-        <v>222</v>
       </c>
       <c r="G118" t="n">
         <v>9</v>
@@ -5043,10 +5031,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>222</v>
+      </c>
+      <c r="F119" t="s">
         <v>223</v>
-      </c>
-      <c r="F119" t="s">
-        <v>224</v>
       </c>
       <c r="G119" t="n">
         <v>4</v>
@@ -5072,10 +5060,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>224</v>
+      </c>
+      <c r="F120" t="s">
         <v>225</v>
-      </c>
-      <c r="F120" t="s">
-        <v>226</v>
       </c>
       <c r="G120" t="n">
         <v>3</v>
@@ -5101,10 +5089,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>226</v>
+      </c>
+      <c r="F121" t="s">
         <v>227</v>
-      </c>
-      <c r="F121" t="s">
-        <v>228</v>
       </c>
       <c r="G121" t="n">
         <v>3</v>
@@ -5130,10 +5118,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>228</v>
+      </c>
+      <c r="F122" t="s">
         <v>229</v>
-      </c>
-      <c r="F122" t="s">
-        <v>230</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5159,10 +5147,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>230</v>
+      </c>
+      <c r="F123" t="s">
         <v>231</v>
-      </c>
-      <c r="F123" t="s">
-        <v>232</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -5188,10 +5176,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>232</v>
+      </c>
+      <c r="F124" t="s">
         <v>233</v>
-      </c>
-      <c r="F124" t="s">
-        <v>234</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -5217,10 +5205,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>234</v>
+      </c>
+      <c r="F125" t="s">
         <v>235</v>
-      </c>
-      <c r="F125" t="s">
-        <v>236</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5246,10 +5234,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>236</v>
+      </c>
+      <c r="F126" t="s">
         <v>237</v>
-      </c>
-      <c r="F126" t="s">
-        <v>238</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5275,10 +5263,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>238</v>
+      </c>
+      <c r="F127" t="s">
         <v>239</v>
-      </c>
-      <c r="F127" t="s">
-        <v>240</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -5304,10 +5292,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>240</v>
+      </c>
+      <c r="F128" t="s">
         <v>241</v>
-      </c>
-      <c r="F128" t="s">
-        <v>242</v>
       </c>
       <c r="G128" t="n">
         <v>3</v>
@@ -5333,10 +5321,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>242</v>
+      </c>
+      <c r="F129" t="s">
         <v>243</v>
-      </c>
-      <c r="F129" t="s">
-        <v>244</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5362,10 +5350,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>244</v>
+      </c>
+      <c r="F130" t="s">
         <v>245</v>
-      </c>
-      <c r="F130" t="s">
-        <v>246</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -5391,10 +5379,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>246</v>
+      </c>
+      <c r="F131" t="s">
         <v>247</v>
-      </c>
-      <c r="F131" t="s">
-        <v>248</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5420,10 +5408,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>248</v>
+      </c>
+      <c r="F132" t="s">
         <v>249</v>
-      </c>
-      <c r="F132" t="s">
-        <v>250</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5449,10 +5437,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F133" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5478,10 +5466,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F134" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5507,10 +5495,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F135" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5536,10 +5524,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F136" t="s">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -5565,10 +5553,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F137" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5594,10 +5582,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F138" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5652,10 +5640,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F140" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G140" t="n">
         <v>4</v>
@@ -5681,10 +5669,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F141" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5710,10 +5698,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F142" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5739,10 +5727,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F143" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5768,10 +5756,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F144" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5797,10 +5785,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F145" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5826,10 +5814,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F146" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5855,10 +5843,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F147" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5884,10 +5872,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F148" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5913,10 +5901,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F149" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5942,10 +5930,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F150" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -5971,10 +5959,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F151" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -6000,10 +5988,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F152" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6029,10 +6017,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F153" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G153" t="n">
         <v>4</v>
@@ -6058,10 +6046,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F154" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6087,10 +6075,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F155" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6116,10 +6104,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F156" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6145,10 +6133,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F157" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -6174,10 +6162,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F158" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6203,10 +6191,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F159" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6232,10 +6220,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F160" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6261,10 +6249,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F161" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G161" t="n">
         <v>5</v>
@@ -6290,10 +6278,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F162" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6377,10 +6365,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F165" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6406,10 +6394,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F166" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G166" t="n">
         <v>5</v>
@@ -6464,10 +6452,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F168" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -6493,10 +6481,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F169" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6522,10 +6510,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F170" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -6580,10 +6568,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F172" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6609,10 +6597,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F173" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6638,10 +6626,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F174" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -6667,10 +6655,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F175" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -6696,10 +6684,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F176" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G176" t="n">
         <v>44</v>
@@ -6725,10 +6713,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F177" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G177" t="n">
         <v>3</v>
@@ -6754,10 +6742,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F178" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6783,10 +6771,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F179" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6812,10 +6800,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F180" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6841,10 +6829,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F181" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6870,10 +6858,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F182" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6899,10 +6887,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F183" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6928,10 +6916,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F184" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6957,10 +6945,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F185" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G185" t="n">
         <v>4</v>
@@ -6986,10 +6974,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F186" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7015,10 +7003,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F187" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7044,10 +7032,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F188" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G188" t="n">
         <v>7</v>
@@ -7073,10 +7061,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F189" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G189" t="n">
         <v>7</v>
@@ -7102,10 +7090,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F190" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7131,10 +7119,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F191" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G191" t="n">
         <v>3</v>
@@ -7160,10 +7148,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F192" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7189,10 +7177,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F193" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7218,10 +7206,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F194" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7247,10 +7235,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F195" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7276,10 +7264,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F196" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7305,10 +7293,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F197" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7334,10 +7322,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F198" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7363,10 +7351,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F199" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7392,10 +7380,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F200" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7421,10 +7409,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F201" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7450,10 +7438,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F202" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7479,10 +7467,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F203" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7508,10 +7496,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F204" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7537,10 +7525,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F205" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7566,10 +7554,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F206" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7595,10 +7583,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F207" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7624,10 +7612,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F208" t="s">
-        <v>388</v>
+        <v>8</v>
       </c>
       <c r="G208" t="n">
         <v>4</v>
@@ -7653,10 +7641,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F209" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -7682,10 +7670,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F210" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7711,10 +7699,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F211" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7740,10 +7728,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F212" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7769,10 +7757,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F213" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7798,10 +7786,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F214" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7827,10 +7815,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F215" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G215" t="n">
         <v>3</v>
@@ -7856,10 +7844,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F216" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -7885,10 +7873,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F217" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -7914,10 +7902,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F218" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -7943,10 +7931,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F219" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -7972,10 +7960,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F220" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G220" t="n">
         <v>6</v>

--- a/xlsx/自由民主制_intext.xlsx
+++ b/xlsx/自由民主制_intext.xlsx
@@ -29,7 +29,7 @@
     <t>民主</t>
   </si>
   <si>
-    <t>政策_政策_美國_自由民主制</t>
+    <t>体育运动_体育运动_草根_自由民主制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%8F%B2</t>
